--- a/biology/Botanique/Liste_d'arbres_remarquables/Liste_d'arbres_remarquables.xlsx
+++ b/biology/Botanique/Liste_d'arbres_remarquables/Liste_d'arbres_remarquables.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27arbres_remarquables</t>
+          <t>Liste_d'arbres_remarquables</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste est destinée à accueillir les arbres remarquables soit parce qu’ils battent des records de dimensions (les plus grands, les plus gros…) ou d’âge (les plus vieux), soit parce qu’ils présentent des caractéristiques particulières et rares, soit parce qu’ils présentent un intérêt historique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27arbres_remarquables</t>
+          <t>Liste_d'arbres_remarquables</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Afrique du Sud</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'Arbre à Poste</t>
         </is>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27arbres_remarquables</t>
+          <t>Liste_d'arbres_remarquables</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,7 +555,9 @@
           <t>Australie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Centurion</t>
         </is>
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_d%27arbres_remarquables</t>
+          <t>Liste_d'arbres_remarquables</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,6 +588,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,7 +597,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_d%27arbres_remarquables</t>
+          <t>Liste_d'arbres_remarquables</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -597,7 +615,9 @@
           <t>Brésil</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dinizia excelsa, de la famille des Fabaceae; un spécimen d'environ 88 m de hauteur pour une circonférence de 5,5 mètres pousse à la base à la frontière entre l'État du Para et l'État d'Amapa au nord du Brésil.</t>
         </is>
@@ -609,7 +629,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_d%27arbres_remarquables</t>
+          <t>Liste_d'arbres_remarquables</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -627,7 +647,9 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Le chêne à gros fruits du manoir Papineau.
 Les noyers noirs du Domaine Joly-De Lotbinière.
@@ -642,7 +664,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_d%27arbres_remarquables</t>
+          <t>Liste_d'arbres_remarquables</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -660,7 +682,9 @@
           <t>États-Unis</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Chandelier Tree
 General Grant
@@ -682,7 +706,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_d%27arbres_remarquables</t>
+          <t>Liste_d'arbres_remarquables</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -700,7 +724,9 @@
           <t>Espagne</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Chêne de Guernica
 Dragonnier d'Icod de los Vinos</t>
@@ -713,7 +739,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_d%27arbres_remarquables</t>
+          <t>Liste_d'arbres_remarquables</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -732,6 +758,8 @@
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -739,7 +767,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_d%27arbres_remarquables</t>
+          <t>Liste_d'arbres_remarquables</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -757,7 +785,9 @@
           <t>Guinée</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Kouratier</t>
         </is>
@@ -769,7 +799,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_d%27arbres_remarquables</t>
+          <t>Liste_d'arbres_remarquables</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -787,7 +817,9 @@
           <t>Grèce</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Olivier de Voúves
 Olivier de Platon
@@ -801,7 +833,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_d%27arbres_remarquables</t>
+          <t>Liste_d'arbres_remarquables</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -819,7 +851,9 @@
           <t>Inde</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Banian de Howrah
 Arbre de la Bodhi</t>
@@ -832,7 +866,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_d%27arbres_remarquables</t>
+          <t>Liste_d'arbres_remarquables</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -850,7 +884,9 @@
           <t>Irlande</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Hungry Tree</t>
         </is>
@@ -862,7 +898,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_d%27arbres_remarquables</t>
+          <t>Liste_d'arbres_remarquables</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -880,7 +916,9 @@
           <t>Italie</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Châtaignier des cent chevaux
 Olivone
@@ -895,7 +933,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_d%27arbres_remarquables</t>
+          <t>Liste_d'arbres_remarquables</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -913,7 +951,9 @@
           <t>Japon</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Jōmon sugi
 Pin des miracles
@@ -929,7 +969,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_d%27arbres_remarquables</t>
+          <t>Liste_d'arbres_remarquables</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -947,7 +987,9 @@
           <t>Kosovo</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Pin du tsar Dušan</t>
         </is>
@@ -959,7 +1001,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_d%27arbres_remarquables</t>
+          <t>Liste_d'arbres_remarquables</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -977,7 +1019,9 @@
           <t>Liban</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Cèdres du Liban</t>
         </is>
@@ -989,7 +1033,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_d%27arbres_remarquables</t>
+          <t>Liste_d'arbres_remarquables</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1007,7 +1051,9 @@
           <t>Lituanie</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Chêne de Stelmuze</t>
         </is>
@@ -1019,7 +1065,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_d%27arbres_remarquables</t>
+          <t>Liste_d'arbres_remarquables</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1037,7 +1083,9 @@
           <t>Luxembourg</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Chêne de Hersberg
 Chêne de Kleinbettingen
@@ -1051,7 +1099,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_d%27arbres_remarquables</t>
+          <t>Liste_d'arbres_remarquables</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1069,7 +1117,9 @@
           <t>Mexique</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Arbre de Tule
 Tépescohuite</t>
@@ -1082,7 +1132,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_d%27arbres_remarquables</t>
+          <t>Liste_d'arbres_remarquables</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1100,7 +1150,9 @@
           <t>Namibie</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Baobab Ombalantu</t>
         </is>
@@ -1112,7 +1164,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_d%27arbres_remarquables</t>
+          <t>Liste_d'arbres_remarquables</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1130,7 +1182,9 @@
           <t>Niger</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Arbre du Ténéré</t>
         </is>
@@ -1142,7 +1196,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_d%27arbres_remarquables</t>
+          <t>Liste_d'arbres_remarquables</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1160,7 +1214,9 @@
           <t>Pays-Bas</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Tilleul de Sambeek</t>
         </is>
@@ -1172,7 +1228,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_d%27arbres_remarquables</t>
+          <t>Liste_d'arbres_remarquables</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1190,7 +1246,9 @@
           <t>Pologne</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Tilleul de Cieletniki</t>
         </is>
@@ -1202,7 +1260,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Liste_d%27arbres_remarquables</t>
+          <t>Liste_d'arbres_remarquables</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1220,7 +1278,9 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Chêne de Calvos</t>
         </is>
@@ -1232,7 +1292,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Liste_d%27arbres_remarquables</t>
+          <t>Liste_d'arbres_remarquables</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1250,7 +1310,9 @@
           <t>Royaume-Uni</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>If de Fortingall
 Major Oak</t>
@@ -1263,7 +1325,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Liste_d%27arbres_remarquables</t>
+          <t>Liste_d'arbres_remarquables</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1281,7 +1343,9 @@
           <t>Suède</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t>Old Tjikko
 Chêne de Rumskulla</t>
@@ -1294,7 +1358,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Liste_d%27arbres_remarquables</t>
+          <t>Liste_d'arbres_remarquables</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1312,7 +1376,9 @@
           <t>Turquie</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
         <is>
           <t>Platane d'Inkaya</t>
         </is>
